--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>-9.304834989435088</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.60803178653154</v>
+        <v>-21.62726513954598</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03173956728394733</v>
+        <v>-0.03252180838265373</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.985720971709062</v>
+        <v>-8.977033206506555</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.720840480666118</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.75098634732013</v>
+        <v>-21.77037614855431</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1650285614966496</v>
+        <v>-0.1663388153369828</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.484338650486334</v>
+        <v>-8.476604241622875</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.12202952624542</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.92403274537459</v>
+        <v>-21.94073359283196</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3317583626790501</v>
+        <v>-0.3334206250138011</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.377362291231368</v>
+        <v>-8.369994557882928</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.45153953207246</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.04257649487667</v>
+        <v>-22.058323985995</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3662160830770666</v>
+        <v>-0.3673161096221225</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.827075234318889</v>
+        <v>-7.819423938572167</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.70034201170651</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.96718800898884</v>
+        <v>-21.97942519317673</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4896243944117337</v>
+        <v>-0.4904995266409115</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.133657612370609</v>
+        <v>-7.125815645356077</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.85400291342131</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.2360931646829</v>
+        <v>-22.24782189215663</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6427578674972437</v>
+        <v>-0.6449139195255532</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.529806596224209</v>
+        <v>-6.522253080614826</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.91055901470573</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.62148868699494</v>
+        <v>-22.63357431196995</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.812601966053869</v>
+        <v>-0.8152126957208016</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.099916222416378</v>
+        <v>-6.093922299997541</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.85323377231555</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.88141273707447</v>
+        <v>-22.89321968865807</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9509217483326268</v>
+        <v>-0.9535080329652247</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.76895490256057</v>
+        <v>-5.762349854283369</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.67787082370529</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31970242467966</v>
+        <v>-23.33101069756284</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.047029845322441</v>
+        <v>-1.049792134202248</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.459896333468542</v>
+        <v>-5.455310445027376</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.38455437717241</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.72206768982676</v>
+        <v>-23.73218793404127</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.314825196457707</v>
+        <v>-1.317783045612191</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.076422190855201</v>
+        <v>-5.070002924838942</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.967728501068182</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.18496374899313</v>
+        <v>-24.19489821094671</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.241133195952698</v>
+        <v>-1.243167022809335</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.923112713522483</v>
+        <v>-4.917685915900207</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.423728759262241</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.76049763736636</v>
+        <v>-24.77068632767701</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.173801793381545</v>
+        <v>-1.176749864522295</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.862684588647413</v>
+        <v>-4.858421374659463</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.766213092132885</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.36250060891707</v>
+        <v>-25.37207817336936</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.111286062574304</v>
+        <v>-1.114063018474712</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.742664359071519</v>
+        <v>-4.737677572067265</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.004047392917363</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.96690897184629</v>
+        <v>-25.97705855010201</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.069543721944584</v>
+        <v>-1.072716687401212</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.763916871921998</v>
+        <v>-4.760440788039621</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.147720188837796</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.73291856775453</v>
+        <v>-26.74447129098105</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9821429461847456</v>
+        <v>-0.9845190035220662</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.731018744714527</v>
+        <v>-4.727831112237299</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.225324963953268</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.49234267141303</v>
+        <v>-27.50228691138033</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8571065955633957</v>
+        <v>-0.8594777638938496</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.764332437505685</v>
+        <v>-4.762161718456776</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.262860296196574</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.38192680488941</v>
+        <v>-28.39283662371293</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6883087444762903</v>
+        <v>-0.6896727773921596</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.018159896022175</v>
+        <v>-5.01823323112518</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.284156532638408</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.02334983880804</v>
+        <v>-29.03382453602041</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4366911170636456</v>
+        <v>-0.4383729354258643</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.324725071612078</v>
+        <v>-5.327174464052402</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.32593513043226</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.44836587276956</v>
+        <v>-29.45830033472313</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2329613119124328</v>
+        <v>-0.234731132398256</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.654229467421544</v>
+        <v>-5.655163267733125</v>
       </c>
     </row>
     <row r="21">
@@ -916,10 +916,10 @@
         <v>-2.420193822798387</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.04857946780698</v>
+        <v>-30.05856281982922</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1780281613479054</v>
+        <v>0.1769379128165834</v>
       </c>
       <c r="G21" t="n">
         <v>-6.000092480207709</v>
@@ -939,13 +939,13 @@
         <v>-1.589883112719312</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.59541977487828</v>
+        <v>-30.60667671318935</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2418492569886132</v>
+        <v>0.2410279038349714</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.266166900925821</v>
+        <v>-6.267526044834823</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.8619802831705856</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.91741954514703</v>
+        <v>-30.92846381165939</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5270201385288952</v>
+        <v>0.525993447086843</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.573201421174947</v>
+        <v>-6.573778323985242</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.2573960872650202</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.11200935196055</v>
+        <v>-31.12452765404328</v>
       </c>
       <c r="F24" t="n">
-        <v>0.713217965055351</v>
+        <v>0.7120934934759605</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.833423700673362</v>
+        <v>-6.834983293863908</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.2156218709196903</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.40144833649565</v>
+        <v>-31.4143039800522</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9557811517504692</v>
+        <v>0.955390031201116</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.900559542969837</v>
+        <v>-6.901659569514893</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5502128968724663</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.31881189792762</v>
+        <v>-31.33100997006057</v>
       </c>
       <c r="F26" t="n">
-        <v>1.000584010678878</v>
+        <v>0.9997088784497</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.072315243211427</v>
+        <v>-7.074896638837157</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7443328205970398</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.41284705600586</v>
+        <v>-31.42556580737014</v>
       </c>
       <c r="F27" t="n">
-        <v>1.239255547907932</v>
+        <v>1.238468417802358</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.324812891860116</v>
+        <v>-7.327995635330478</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8086631686676624</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.23620723790422</v>
+        <v>-31.24983778904918</v>
       </c>
       <c r="F28" t="n">
-        <v>1.393987726238923</v>
+        <v>1.394153952472398</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.514931701893838</v>
+        <v>-7.518530010947887</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7556998630837235</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.04056629461432</v>
+        <v>-31.05349527327388</v>
       </c>
       <c r="F29" t="n">
-        <v>1.412546396305732</v>
+        <v>1.412947294868819</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.823164028825357</v>
+        <v>-7.826923675106015</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5991880476085225</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.92653998745726</v>
+        <v>-30.94148323694599</v>
       </c>
       <c r="F30" t="n">
-        <v>1.542486420814598</v>
+        <v>1.543371331057509</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.872019874446439</v>
+        <v>-7.87591641291937</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3617174524904987</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.64896417808474</v>
+        <v>-30.66275851095973</v>
       </c>
       <c r="F31" t="n">
-        <v>1.445659639815347</v>
+        <v>1.445380966423933</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.808814793670962</v>
+        <v>-7.811831310907849</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.06439969833479497</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.23314681054332</v>
+        <v>-30.2479409453226</v>
       </c>
       <c r="F32" t="n">
-        <v>1.428176551259259</v>
+        <v>1.428807233145091</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.810726395355926</v>
+        <v>-7.812285988546471</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.273518898611705</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.75027426931873</v>
+        <v>-29.76430327452334</v>
       </c>
       <c r="F33" t="n">
-        <v>1.363666105650316</v>
+        <v>1.363846998904392</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.05137798036608</v>
+        <v>-8.054629169932578</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.628666234031239</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.18149209942871</v>
+        <v>-29.19586822412088</v>
       </c>
       <c r="F34" t="n">
-        <v>1.366188833193644</v>
+        <v>1.366707067921538</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.066529012646649</v>
+        <v>-8.069657977041475</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.9833770904099365</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.68951867192136</v>
+        <v>-28.70427613914914</v>
       </c>
       <c r="F35" t="n">
-        <v>1.384996842610666</v>
+        <v>1.385373296139419</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.036911409046878</v>
+        <v>-8.039013681999652</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.321957912366993</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.05939657737559</v>
+        <v>-28.07296357143128</v>
       </c>
       <c r="F36" t="n">
-        <v>1.313773790573449</v>
+        <v>1.313803124614651</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.862173414616472</v>
+        <v>-7.862701427358099</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.629896175106609</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.42740688220666</v>
+        <v>-27.43982740415206</v>
       </c>
       <c r="F37" t="n">
-        <v>1.402621712365895</v>
+        <v>1.402538599249157</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.758917589587228</v>
+        <v>-7.760423403702238</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.899039910475308</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.84215853718888</v>
+        <v>-26.85404860188921</v>
       </c>
       <c r="F38" t="n">
-        <v>1.23358429994231</v>
+        <v>1.233300737544029</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.675388907265986</v>
+        <v>-7.676928944429064</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.12389284966639</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.07863255676904</v>
+        <v>-26.08894836125823</v>
       </c>
       <c r="F39" t="n">
-        <v>1.320021941349367</v>
+        <v>1.319801936040355</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.586961440064096</v>
+        <v>-7.58776323719027</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.300549490910292</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.4629208099635</v>
+        <v>-25.47277215880034</v>
       </c>
       <c r="F40" t="n">
-        <v>1.317000535105613</v>
+        <v>1.316443188322785</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.231863093306329</v>
+        <v>-7.232728447521773</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.430065709570391</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.89173813770183</v>
+        <v>-24.90039167985627</v>
       </c>
       <c r="F41" t="n">
-        <v>1.374157914386716</v>
+        <v>1.374402364730062</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.222647315362194</v>
+        <v>-7.222041078510697</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.517906189979911</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.21852678113451</v>
+        <v>-24.22714121123401</v>
       </c>
       <c r="F42" t="n">
-        <v>1.369684473103489</v>
+        <v>1.369009790155854</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.955516869160829</v>
+        <v>-6.955741763476706</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.570384494550185</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.53877882238612</v>
+        <v>-23.54732969539635</v>
       </c>
       <c r="F43" t="n">
-        <v>1.325952306678934</v>
+        <v>1.324876725168213</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.876256289834403</v>
+        <v>-6.876539852232685</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.596123297201486</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.85872774521198</v>
+        <v>-22.86568969099047</v>
       </c>
       <c r="F44" t="n">
-        <v>1.437822561807682</v>
+        <v>1.436981652626573</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.799259320687359</v>
+        <v>-6.799137095515687</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.608806107471841</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.02930773023986</v>
+        <v>-22.03645056927243</v>
       </c>
       <c r="F45" t="n">
-        <v>1.481647619362708</v>
+        <v>1.48023469637817</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.634519345299794</v>
+        <v>-6.633634435056882</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.622008288644906</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.50973341446534</v>
+        <v>-21.51613312445414</v>
       </c>
       <c r="F46" t="n">
-        <v>1.466501476089005</v>
+        <v>1.465108109131935</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.513628872501588</v>
+        <v>-6.514636007916172</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.647402696064363</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.82240260606637</v>
+        <v>-20.82719872180282</v>
       </c>
       <c r="F47" t="n">
-        <v>1.546705633740745</v>
+        <v>1.546896305008555</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.493730614553244</v>
+        <v>-6.493241713866553</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.702625334261203</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.17333805441474</v>
+        <v>-20.17730303898381</v>
       </c>
       <c r="F48" t="n">
-        <v>1.593581431580726</v>
+        <v>1.593361426271714</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.455762587224783</v>
+        <v>-6.455787032259117</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.803217089668464</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.41582066343434</v>
+        <v>-19.41877362358196</v>
       </c>
       <c r="F49" t="n">
-        <v>1.742818366193305</v>
+        <v>1.742261019410476</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.206516128142591</v>
+        <v>-6.206100562558904</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.956744647882941</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.00846372227612</v>
+        <v>-19.01057088423576</v>
       </c>
       <c r="F50" t="n">
-        <v>1.727178433226044</v>
+        <v>1.726674865518751</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.21461721252107</v>
+        <v>-6.216367476979425</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.176633144594633</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43345295763765</v>
+        <v>-18.43574590185824</v>
       </c>
       <c r="F51" t="n">
-        <v>1.704072986773004</v>
+        <v>1.705212125372995</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.282799302287065</v>
+        <v>-6.284305116402075</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.47268265881526</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.97653615386952</v>
+        <v>-17.97929844274932</v>
       </c>
       <c r="F52" t="n">
-        <v>1.716002163528276</v>
+        <v>1.715004806127425</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.277235612472516</v>
+        <v>-6.278863651759199</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.839978843530625</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.57653227903914</v>
+        <v>-17.57818476336015</v>
       </c>
       <c r="F53" t="n">
-        <v>1.80548565621342</v>
+        <v>1.804224292441756</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.186515201050042</v>
+        <v>-6.187507669444027</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.279911861235332</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.94960026147403</v>
+        <v>-16.95052428377188</v>
       </c>
       <c r="F54" t="n">
-        <v>1.856370439684271</v>
+        <v>1.85504062981647</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.188035682185653</v>
+        <v>-6.189957061884351</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.789147281563983</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.74831007074941</v>
+        <v>-16.74946876537687</v>
       </c>
       <c r="F55" t="n">
-        <v>1.849965840688613</v>
+        <v>1.848983150308362</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.403709331112739</v>
+        <v>-6.40635428382774</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.348554925416878</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.20219333669441</v>
+        <v>-16.20384582101542</v>
       </c>
       <c r="F56" t="n">
-        <v>1.892353530224765</v>
+        <v>1.891224169638508</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.316797456039592</v>
+        <v>-6.31786325953658</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.943740978732256</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.10779150310115</v>
+        <v>-16.10970799379298</v>
       </c>
       <c r="F57" t="n">
-        <v>1.933386964858782</v>
+        <v>1.931949596839909</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.483023689514701</v>
+        <v>-6.486216210998796</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.559405013932379</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.90112340482292</v>
+        <v>-15.90255099482806</v>
       </c>
       <c r="F58" t="n">
-        <v>1.831661398978883</v>
+        <v>1.829202228524825</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.645309383455075</v>
+        <v>-6.648203675520288</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.168779505635325</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65006801319997</v>
+        <v>-15.65213606310467</v>
       </c>
       <c r="F59" t="n">
-        <v>1.878766980141608</v>
+        <v>1.877520283390545</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.419339486066266</v>
+        <v>-6.420209729288577</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.749105312476788</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.42809243442143</v>
+        <v>-15.43055649388235</v>
       </c>
       <c r="F60" t="n">
-        <v>1.938500866041575</v>
+        <v>1.937645289839865</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.432637584744275</v>
+        <v>-6.432583805668739</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.284539747527409</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29975111515805</v>
+        <v>-15.3007924736207</v>
       </c>
       <c r="F61" t="n">
-        <v>1.890725490938082</v>
+        <v>1.889288122919209</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.286446501409784</v>
+        <v>-6.285199804658721</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.754503132472244</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.26857391836773</v>
+        <v>-15.27116509200719</v>
       </c>
       <c r="F62" t="n">
-        <v>1.884262223860021</v>
+        <v>1.882947081012821</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.365193735015183</v>
+        <v>-6.364362603847807</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.141893392010484</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.21923895007369</v>
+        <v>-15.22318926762216</v>
       </c>
       <c r="F63" t="n">
-        <v>1.869042745483315</v>
+        <v>1.867937829931392</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.397255842048411</v>
+        <v>-6.395754916940269</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.441843094088464</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.26593874366646</v>
+        <v>-15.27076908245097</v>
       </c>
       <c r="F64" t="n">
-        <v>1.720993839539396</v>
+        <v>1.719272909122242</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.392200608948022</v>
+        <v>-6.39000055585791</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.648941582813393</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.32751578515526</v>
+        <v>-15.33274213349599</v>
       </c>
       <c r="F65" t="n">
-        <v>1.70675705154294</v>
+        <v>1.705495687771276</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.493143933729214</v>
+        <v>-6.49123233204425</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.757325336338923</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.33818848714573</v>
+        <v>-15.34366417483668</v>
       </c>
       <c r="F66" t="n">
-        <v>1.79569297545899</v>
+        <v>1.795482748163712</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.445349002598253</v>
+        <v>-6.444273421087533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.772597768269218</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.22821027767448</v>
+        <v>-15.23374952245469</v>
       </c>
       <c r="F67" t="n">
-        <v>1.616491317759089</v>
+        <v>1.616818881219172</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.200991550382978</v>
+        <v>-6.198287929585574</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.701071678313772</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.36298064096786</v>
+        <v>-15.36910167756523</v>
       </c>
       <c r="F68" t="n">
-        <v>1.592173397603054</v>
+        <v>1.590789808659717</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.321021557972607</v>
+        <v>-6.318503719436145</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.543704853666023</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.27796570055907</v>
+        <v>-15.28460008287748</v>
       </c>
       <c r="F69" t="n">
-        <v>1.545038482399127</v>
+        <v>1.543747784586262</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.202052464873098</v>
+        <v>-6.200238643325473</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.308434085487491</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.33047363430974</v>
+        <v>-15.3376458073835</v>
       </c>
       <c r="F70" t="n">
-        <v>1.484204569954104</v>
+        <v>1.483226768580721</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.134926400590356</v>
+        <v>-6.133190803152601</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.006685578887449</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.36335220548974</v>
+        <v>-15.37013325801415</v>
       </c>
       <c r="F71" t="n">
-        <v>1.378039785839046</v>
+        <v>1.376763755046782</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.141350555613482</v>
+        <v>-6.140059857800616</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.640833011224174</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.47798963850516</v>
+        <v>-15.48536714986734</v>
       </c>
       <c r="F72" t="n">
-        <v>1.298916098704895</v>
+        <v>1.297820961166706</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.999862696884963</v>
+        <v>-5.999505799383678</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.214146908695739</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.59395199238152</v>
+        <v>-15.60087971511194</v>
       </c>
       <c r="F73" t="n">
-        <v>1.225052982959544</v>
+        <v>1.22556632868057</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.148464060604844</v>
+        <v>-6.149006740367071</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.739481290878002</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.69906564002019</v>
+        <v>-15.70618892302529</v>
       </c>
       <c r="F74" t="n">
-        <v>1.088204791747728</v>
+        <v>1.087735447088504</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.060417935938572</v>
+        <v>-6.061576630566031</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.219255829630091</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.96482227529195</v>
+        <v>-15.97216556360606</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0417201144571</v>
+        <v>1.040365859554965</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.09891397600866</v>
+        <v>-6.100414901116803</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.653864367902494</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.99608747420587</v>
+        <v>-16.00261918738007</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8142737369944829</v>
+        <v>0.8127923679138077</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.239101358910579</v>
+        <v>-6.240426279771514</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.055808248736993</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.04154057104758</v>
+        <v>-16.0477153867205</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6713533992539583</v>
+        <v>0.6703169297981723</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.183146675318738</v>
+        <v>-6.184647600426881</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.430472598421271</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.16814140386635</v>
+        <v>-16.17405221316844</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6897409540804254</v>
+        <v>0.6892129413387986</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.160202566092306</v>
+        <v>-6.160838136985005</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.780433809339258</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.3043638021992</v>
+        <v>-16.30977593280087</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4070879110766046</v>
+        <v>0.4057678792225375</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.177529206428653</v>
+        <v>-6.179558144278422</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.120465241722575</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.76435090227976</v>
+        <v>-16.7697239208265</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3842758050355795</v>
+        <v>0.3828971050991094</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.147989826938753</v>
+        <v>-6.150737448797959</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.462082554043594</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.21492177513464</v>
+        <v>-17.22003078731056</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2259648736780065</v>
+        <v>0.2244541705561298</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.255963543594569</v>
+        <v>-6.259390737408276</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.81308309121696</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.64582906237079</v>
+        <v>-17.65058117704543</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0805269668088916</v>
+        <v>-0.08187144369729321</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.307185668539237</v>
+        <v>-6.310891535744359</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.190285838070617</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.11591196163153</v>
+        <v>-18.12029251178428</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.0945241934688691</v>
+        <v>-0.09573666717186401</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.363375024460691</v>
+        <v>-6.368440035574815</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.610179972941499</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.8964712419757</v>
+        <v>-18.89972732054907</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1963622065067075</v>
+        <v>-0.1966506579118555</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.40354799388613</v>
+        <v>-6.408158327361631</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.084171927306899</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58677456654976</v>
+        <v>-19.59010398022613</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3532211028248067</v>
+        <v>-0.3538175616625703</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.502164151398672</v>
+        <v>-6.508241186934248</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.628607334465905</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23147323506923</v>
+        <v>-20.23402040764689</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5123778323703558</v>
+        <v>-0.5138200893960958</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.759198798419859</v>
+        <v>-6.765955405909935</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2600963692381889</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98659990169171</v>
+        <v>-20.98811549382046</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6107495395395516</v>
+        <v>-0.6125291380391086</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.088370741762375</v>
+        <v>-7.096579384291926</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01281811490194692</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83138606524654</v>
+        <v>-21.83327322189718</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7323831413815286</v>
+        <v>-0.7335613920364551</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.39524881379176</v>
+        <v>-7.404039248138472</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1793433630507001</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81567515074193</v>
+        <v>-22.81662850708098</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9352475923172974</v>
+        <v>-0.9376529836958195</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.472201781877001</v>
+        <v>-7.480811322969638</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2289323654748923</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86281730851838</v>
+        <v>-23.86228929577675</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.184044262767732</v>
+        <v>-1.185540298869008</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.84206492937285</v>
+        <v>-7.849613555975368</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1622980665535407</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.07004510714508</v>
+        <v>-25.06914552988157</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.111432732780311</v>
+        <v>-1.111965634528805</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.209698689737387</v>
+        <v>-8.218283785795689</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02290875006741012</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34117711452923</v>
+        <v>-26.33858594088977</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.326045467217277</v>
+        <v>-1.325082332864495</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.484680880967018</v>
+        <v>-8.49499668545621</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3279403091445226</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58144971056942</v>
+        <v>-27.57920810092094</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.616902263743781</v>
+        <v>-1.617415609464807</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.783350310466853</v>
+        <v>-8.793573223825572</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.7409959081354641</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.0822501490372</v>
+        <v>-29.07789893292565</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.864100228948735</v>
+        <v>-1.863391322953032</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.119606424759528</v>
+        <v>-9.129575109761168</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.252767531573977</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.72771385619357</v>
+        <v>-30.72246061831506</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.128991510005053</v>
+        <v>-2.1272852466085</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.382429655911142</v>
+        <v>-9.392105000500766</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.857494318354953</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.55338146745755</v>
+        <v>-32.54839468045329</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.159293574566192</v>
+        <v>-2.156443283562781</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.729964709045792</v>
+        <v>-9.739669387676617</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.525848433888088</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.27849442998625</v>
+        <v>-34.27276451393823</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.529665178776201</v>
+        <v>-2.527181563287808</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.0904214073297</v>
+        <v>-10.10021897709099</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.257202882328296</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.26832511382751</v>
+        <v>-36.26140716911082</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.926466754108752</v>
+        <v>-2.92314222943925</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.49917660445185</v>
+        <v>-10.50853416359513</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.010700950324931</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.30688208460786</v>
+        <v>-38.29812831781265</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.204612132781277</v>
+        <v>-3.201747174757265</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.82525869545448</v>
+        <v>-10.83429846915141</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.803091409482958</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.50137392940847</v>
+        <v>-40.49269838672313</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.566985321757013</v>
+        <v>-3.564560374351023</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.03045520266577</v>
+        <v>-11.03809672039876</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.55725476503334</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.4059818900491</v>
+        <v>-42.39803725389036</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.988583939918557</v>
+        <v>-3.986555002068787</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.2744948694347</v>
+        <v>-11.28093858048529</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.364836803782239</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.68331551170615</v>
+        <v>-44.674449297753</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.238094405371561</v>
+        <v>-4.23655925721535</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.42599052521979</v>
+        <v>-11.43184755544635</v>
       </c>
     </row>
   </sheetData>
